--- a/medicine/Psychotrope/La_Cage_–_Brasserie_sportive/La_Cage_–_Brasserie_sportive.xlsx
+++ b/medicine/Psychotrope/La_Cage_–_Brasserie_sportive/La_Cage_–_Brasserie_sportive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Cage_%E2%80%93_Brasserie_sportive</t>
+          <t>La_Cage_–_Brasserie_sportive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Cage – Brasserie sportive (appelée à l'origine La Cage aux Sports, jusqu'en 2015) est une brasserie sportive québécoise présente à la grandeur de la province avec plus de 50 établissements[2],[3], lesquels accueillent chaque année plus de sept millions de consommateurs. Son siège social est situé à Boucherville, au Québec (Canada).
-En 2023, la Cage ouvre sa première succursale hors du Québec, à Bordeaux, en France[4].
+La Cage – Brasserie sportive (appelée à l'origine La Cage aux Sports, jusqu'en 2015) est une brasserie sportive québécoise présente à la grandeur de la province avec plus de 50 établissements lesquels accueillent chaque année plus de sept millions de consommateurs. Son siège social est situé à Boucherville, au Québec (Canada).
+En 2023, la Cage ouvre sa première succursale hors du Québec, à Bordeaux, en France.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Cage_%E2%80%93_Brasserie_sportive</t>
+          <t>La_Cage_–_Brasserie_sportive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Particularité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cage se démarque avec son ambiance lors des événements sportifs de toute sorte tels que le hockey des Canadiens de Montréal, les combats de Lucian Bute, des autres boxeurs de l'équipe InterBox en plus de grands événements de boxe internationaux. La Cage diffuse également des événements UFC et Affliction, du football, du soccer et bien d'autres.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Cage_%E2%80%93_Brasserie_sportive</t>
+          <t>La_Cage_–_Brasserie_sportive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Menu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son menu est assez varié. On y sert principalement steaks, poulet, des hamburgers, des côtes-levées, des salades, des fruits de mer et poissons (saumon, aiglefin), des pâtes (Spaghetti, Mac and cheese) et de nombreuses entrées dont notamment des ailes de poulet et des nachos. Le maïs soufflé est offert gratuitement aux clients à volonté.
-En raison de la deuxième vague de la covid-19, qui a obligé les restaurateurs québécois à fermer leurs portes temporairement, La Cage offre, depuis l'automne 2020, la possibilité à ses clients d'acheter des boîtes de repas prêts à cuisiner. Des guédilles au homard et un vaste choix de hamburgers sont offerts parmi les repas prêts à cuisiner[5].
+En raison de la deuxième vague de la covid-19, qui a obligé les restaurateurs québécois à fermer leurs portes temporairement, La Cage offre, depuis l'automne 2020, la possibilité à ses clients d'acheter des boîtes de repas prêts à cuisiner. Des guédilles au homard et un vaste choix de hamburgers sont offerts parmi les repas prêts à cuisiner.
 Plusieurs bières de microbrasserie et importé sont également disponibles en fût.
 </t>
         </is>
